--- a/Telas/Matrizes 2048.xlsx
+++ b/Telas/Matrizes 2048.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdroe\Desktop\P STUFF\Projeto-2048\Telas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projeto-2048\Telas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFEA400-DA00-422A-AD5B-830BF8B324AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87F3B9B-722B-425D-B500-26CF0F48476C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{AFC736A5-E8B5-4DA0-988D-880F58BE1F7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{AFC736A5-E8B5-4DA0-988D-880F58BE1F7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -73,7 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,8 +85,22 @@
       <color theme="0"/>
       <name val="Sans"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,18 +133,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -148,6 +149,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="28">
     <border>
@@ -512,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -523,7 +530,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -544,22 +551,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -577,16 +575,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -604,13 +593,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -636,7 +646,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -932,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756B1741-A9FE-442F-AB5A-D3FC137ED115}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="30" customHeight="1"/>
@@ -950,7 +960,7 @@
     <col min="20" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -971,22 +981,22 @@
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" ht="30" customHeight="1" thickBot="1">
+    <row r="2" spans="1:28" ht="30" customHeight="1" thickBot="1">
       <c r="A2" s="4"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="21" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="4"/>
@@ -1002,18 +1012,18 @@
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:19" ht="30" customHeight="1" thickBot="1">
+    <row r="3" spans="1:28" ht="30" customHeight="1" thickBot="1">
       <c r="A3" s="4"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="29"/>
+      <c r="G3" s="23"/>
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
       <c r="J3" s="6" t="s">
@@ -1034,17 +1044,18 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
+      <c r="AB3" s="28"/>
     </row>
-    <row r="4" spans="1:19" ht="30" customHeight="1">
+    <row r="4" spans="1:28" ht="30" customHeight="1">
       <c r="A4" s="4"/>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="30"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="4"/>
       <c r="I4" s="8" t="s">
         <v>0</v>
@@ -1058,28 +1069,28 @@
         <v>4096</v>
       </c>
       <c r="N4" s="4"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="17" t="s">
+      <c r="O4" s="13"/>
+      <c r="P4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="17" t="s">
+      <c r="Q4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="R4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:19" ht="30" customHeight="1">
+    <row r="5" spans="1:28" ht="30" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="22" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="29"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="4"/>
       <c r="I5" s="8" t="s">
         <v>1</v>
@@ -1089,26 +1100,26 @@
       <c r="L5" s="3"/>
       <c r="M5" s="10"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="16" t="s">
         <v>0</v>
       </c>
       <c r="P5" s="2">
         <v>1024</v>
       </c>
       <c r="Q5" s="2"/>
-      <c r="R5" s="20"/>
+      <c r="R5" s="17"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:19" ht="30" customHeight="1">
+    <row r="6" spans="1:28" ht="30" customHeight="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="30"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="4"/>
       <c r="I6" s="8" t="s">
         <v>10</v>
@@ -1118,24 +1129,24 @@
       <c r="L6" s="2"/>
       <c r="M6" s="9"/>
       <c r="N6" s="4"/>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="16" t="s">
         <v>1</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="21"/>
+      <c r="R6" s="18"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:19" ht="30" customHeight="1">
+    <row r="7" spans="1:28" ht="30" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="29"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="4"/>
       <c r="I7" s="8" t="s">
         <v>3</v>
@@ -1145,36 +1156,36 @@
       <c r="L7" s="3"/>
       <c r="M7" s="10"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="16" t="s">
         <v>10</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="20"/>
+      <c r="R7" s="17"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" thickBot="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="13"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="34"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="24"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="27"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1">
+    <row r="9" spans="1:28" ht="15.75" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1195,13 +1206,14 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="11" spans="1:19" ht="30" customHeight="1">
-      <c r="M11" s="14"/>
+    <row r="11" spans="1:28" ht="30" customHeight="1">
+      <c r="M11" s="11"/>
     </row>
-    <row r="13" spans="1:19" ht="30" customHeight="1">
-      <c r="K13" s="15"/>
+    <row r="13" spans="1:28" ht="30" customHeight="1">
+      <c r="K13" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>